--- a/Pre-Alpha_0.1_Docs/Pre-Alpha_0.1.xlsx
+++ b/Pre-Alpha_0.1_Docs/Pre-Alpha_0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Momok\Documents\GitHub\Shonen Fighter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Momok\Documents\GitHub\Shonen Fighter\Pre-Alpha_0.1_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF15C5A-99C3-447A-8178-CCDEEBF9449E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6415313-18D3-462F-AC9C-B04D5875CDCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE07524E-C044-4D1C-B3F8-8441B399A6A2}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
